--- a/12. Tablas de Referencia/Tracking de Stats e Iniciativa.xlsx
+++ b/12. Tablas de Referencia/Tracking de Stats e Iniciativa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ROL mapas e imágenes para PDF\ROL-Maps-and-images-for-PDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monsi\Desktop\ROL\12. Tablas de Referencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399C921F-F7AA-4267-912A-A24A067EC72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB9B9BB-CFE6-45F4-A628-6946D79E2F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="0" windowWidth="25785" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="22170" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hojas de PJ" sheetId="1" r:id="rId1"/>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2315,6 +2315,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>